--- a/data/5060.xlsx
+++ b/data/5060.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2531"/>
+  <dimension ref="A1:I2532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89763,6 +89763,43 @@
         </is>
       </c>
     </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>KINSTEL</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2532" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
